--- a/OUTPUT/TablaGeneral.xlsx
+++ b/OUTPUT/TablaGeneral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/549d6ce7d270bfdc/Documentos/TFG_Lucia/GitHub/Automatizacion_PDF_scraping/Automatizacion_PDF_scraping/OUTPUT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_D0829CC997D9AECF8A160B1E4BD3676850D2C33C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F42B161E-7F20-4DD5-B5F5-61685C21F0E2}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_D0829CC997D9AECF8A160B1E4BD3676850D2C33C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9CB6EF6-5111-49CB-B6B0-B59038F2F513}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Número de chip</t>
   </si>
@@ -71,57 +71,6 @@
   </si>
   <si>
     <t>SI/NO fármacos</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>00022</t>
-  </si>
-  <si>
-    <t>00023</t>
-  </si>
-  <si>
-    <t>00024</t>
-  </si>
-  <si>
-    <t>00025</t>
-  </si>
-  <si>
-    <t>00026</t>
-  </si>
-  <si>
-    <t>00027</t>
-  </si>
-  <si>
-    <t>00028</t>
   </si>
   <si>
     <t>23B00021-A1</t>
@@ -282,11 +231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,6 +252,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,13 +548,15 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
@@ -664,44 +620,44 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
       </c>
       <c r="I2">
         <v>15.1</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="O2">
         <v>6</v>
@@ -720,44 +676,44 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
         <v>18</v>
       </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>15.1</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O3">
         <v>5</v>
@@ -776,44 +732,44 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>15.1</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -832,44 +788,44 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>15.1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -888,44 +844,44 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>15.1</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -944,44 +900,44 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>15.1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -1000,44 +956,44 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I8">
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1056,44 +1012,44 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I9">
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O9">
         <v>0</v>
